--- a/documents/deliverables/ES2023_marking_scheme_Web_Development_17.xlsx
+++ b/documents/deliverables/ES2023_marking_scheme_Web_Development_17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1509cb24dca1c9ac/Skills/Euro/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastian/projects/skills/euroskills-web-development-2023/documents/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2114" documentId="13_ncr:1_{9CE4662E-C534-7A48-8AC9-72D297A8977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB421F0-1594-764E-87A1-A02C2EC44FEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D9A11-9524-3449-AE6E-3AC4734DD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="34840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Marking Scheme Import" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="440">
   <si>
     <t>17 Web Development</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Common website elements (header, navigation, footer) are responsive</t>
-  </si>
-  <si>
-    <t>All common elements are not responsible at all</t>
   </si>
   <si>
     <t>At least one common element is responsive when changing between the defined viewports</t>
@@ -1384,6 +1381,12 @@
   </si>
   <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>All common elements are not responsive at all</t>
+  </si>
+  <si>
+    <t>Pricing page design</t>
   </si>
 </sst>
 </file>
@@ -1696,58 +1699,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1769,6 +1720,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1784,10 +1787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2077,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="125" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2099,19 +2098,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -2119,33 +2118,33 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2160,15 +2159,15 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="17">
         <v>5</v>
       </c>
@@ -2185,15 +2184,15 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="17">
         <v>5</v>
       </c>
@@ -2210,15 +2209,15 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="17">
         <v>25</v>
       </c>
@@ -2235,15 +2234,15 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="17">
         <v>25</v>
       </c>
@@ -2260,15 +2259,15 @@
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="15">
         <v>40</v>
       </c>
@@ -2284,10 +2283,10 @@
     <row r="10" spans="1:11" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="15">
         <f>SUM(K5:K9)</f>
         <v>0</v>
@@ -2306,35 +2305,35 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
@@ -2343,17 +2342,17 @@
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="17">
         <v>17</v>
       </c>
@@ -2362,17 +2361,17 @@
       <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="17">
         <v>23</v>
       </c>
@@ -2381,17 +2380,17 @@
       <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="17">
         <v>17</v>
       </c>
@@ -2400,17 +2399,17 @@
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="17">
         <v>22</v>
       </c>
@@ -2419,17 +2418,17 @@
       <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="17">
         <v>16</v>
       </c>
@@ -2438,17 +2437,17 @@
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="15">
         <v>5</v>
       </c>
@@ -2513,1812 +2512,1812 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="28">
         <v>1</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="50"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="48">
+      <c r="F25" s="28"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="28">
         <v>3</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="50">
+      <c r="J25" s="28"/>
+      <c r="K25" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="48"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="48">
+      <c r="A26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28">
         <v>0</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="48">
+      <c r="H27" s="26"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" ht="56" x14ac:dyDescent="0.15">
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28">
+        <v>3</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="28"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="28">
+        <v>3</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="48"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="48">
+    </row>
+    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="28">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="28">
         <v>2</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:15" ht="56" x14ac:dyDescent="0.15">
-      <c r="A29" s="48"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="48">
+      <c r="G34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="28">
         <v>3</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="48"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48" t="s">
+      <c r="G35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="28">
+        <v>3</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="28">
+        <v>3</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="48">
+      <c r="E42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="28">
         <v>3</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="50">
+      <c r="J42" s="28"/>
+      <c r="K42" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="48"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="48">
+    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="28">
         <v>0</v>
       </c>
-      <c r="G32" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A33" s="48"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48">
+      <c r="G43" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="26"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="28">
         <v>1</v>
       </c>
-      <c r="G33" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A34" s="48"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="48">
+      <c r="G44" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="28">
         <v>2</v>
       </c>
-      <c r="G34" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="56" x14ac:dyDescent="0.15">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="48">
+      <c r="G45" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="28">
         <v>3</v>
       </c>
-      <c r="G35" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="48"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A37" s="48"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="48">
+      <c r="G46" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="28">
         <v>3</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="50">
+      <c r="J48" s="28"/>
+      <c r="K48" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="50"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="48">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="28">
+        <v>3</v>
+      </c>
+      <c r="J50" s="28"/>
+      <c r="K50" s="30">
         <v>1</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="50"/>
-    </row>
-    <row r="40" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="48"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="48">
+    </row>
+    <row r="51" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="28"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="28">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="28">
+        <v>1</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="28"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="28">
+        <v>2</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="26"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="28">
         <v>3</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="50">
+      <c r="G54" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="28"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="28"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="26"/>
+      <c r="I56" s="28">
+        <v>3</v>
+      </c>
+      <c r="J56" s="28"/>
+      <c r="K56" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="48"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="50"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E58" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="28">
+        <v>3</v>
+      </c>
+      <c r="J58" s="28"/>
+      <c r="K58" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="28"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="28">
+        <v>0</v>
+      </c>
+      <c r="G59" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="48">
+      <c r="H59" s="26"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="28">
+        <v>1</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A61" s="28"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="28">
+        <v>2</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="30"/>
+    </row>
+    <row r="62" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A62" s="28"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="28">
         <v>3</v>
       </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="50">
+      <c r="G62" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="30"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="28"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="26"/>
+      <c r="I64" s="28">
+        <v>3</v>
+      </c>
+      <c r="J64" s="28"/>
+      <c r="K64" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="28"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="28">
+        <v>3</v>
+      </c>
+      <c r="J66" s="28"/>
+      <c r="K66" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="48"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="48">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="28"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="28">
         <v>0</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G67" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="28">
+        <v>1</v>
+      </c>
+      <c r="G68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="50"/>
-    </row>
-    <row r="44" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="48"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="48">
+      <c r="H68" s="26"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="30"/>
+    </row>
+    <row r="69" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A69" s="28"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="28">
+        <v>2</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="26"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="30"/>
+    </row>
+    <row r="70" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="28">
+        <v>3</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="26"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="30"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="28"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="30"/>
+    </row>
+    <row r="72" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="26"/>
+      <c r="I72" s="28">
+        <v>3</v>
+      </c>
+      <c r="J72" s="28"/>
+      <c r="K72" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="28"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="30"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="28"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="28">
+        <v>3</v>
+      </c>
+      <c r="J74" s="28"/>
+      <c r="K74" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="28"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="28">
+        <v>0</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H75" s="26"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="30"/>
+    </row>
+    <row r="76" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="28"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="28">
         <v>1</v>
       </c>
-      <c r="G44" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="50"/>
-    </row>
-    <row r="45" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A45" s="48"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="48">
+      <c r="G76" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="26"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="30"/>
+    </row>
+    <row r="77" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="28"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="28">
         <v>2</v>
       </c>
-      <c r="G45" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="50"/>
-    </row>
-    <row r="46" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A46" s="48"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="48">
+      <c r="G77" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" s="26"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="30"/>
+    </row>
+    <row r="78" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A78" s="28"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="28">
         <v>3</v>
       </c>
-      <c r="G46" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="50"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="50"/>
-    </row>
-    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="48">
+      <c r="G78" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="26"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="30"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="28"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="30"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="28"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" s="26"/>
+      <c r="I80" s="28">
         <v>3</v>
       </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="50">
+      <c r="J80" s="28"/>
+      <c r="K80" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="50"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="28"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="30"/>
+    </row>
+    <row r="82" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="28"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="48"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="48">
+      <c r="E82" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="28">
         <v>3</v>
       </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="50">
+      <c r="J82" s="28"/>
+      <c r="K82" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="28"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="28">
+        <v>0</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="26"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="30"/>
+    </row>
+    <row r="84" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="28"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="48">
+      <c r="G84" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" s="26"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="30"/>
+    </row>
+    <row r="85" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="28"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="28">
+        <v>2</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="26"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="30"/>
+    </row>
+    <row r="86" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A86" s="28"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="28">
+        <v>3</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="28"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="30"/>
+    </row>
+    <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="28"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="28">
+        <v>3</v>
+      </c>
+      <c r="J88" s="28"/>
+      <c r="K88" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A89" s="28"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="28">
         <v>0</v>
       </c>
-      <c r="G51" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="48">
+      <c r="G89" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H89" s="26"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="30"/>
+    </row>
+    <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A90" s="28"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="28">
         <v>1</v>
       </c>
-      <c r="G52" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="50"/>
-    </row>
-    <row r="53" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A53" s="48"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="48">
+      <c r="G90" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" s="26"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="30"/>
+    </row>
+    <row r="91" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A91" s="28"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="28">
         <v>2</v>
       </c>
-      <c r="G53" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="50"/>
-    </row>
-    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="48"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="48">
+      <c r="G91" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H91" s="26"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="30"/>
+    </row>
+    <row r="92" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A92" s="28"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="28">
         <v>3</v>
       </c>
-      <c r="G54" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="50"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="48"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="50"/>
-    </row>
-    <row r="56" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="48"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="48">
+      <c r="G92" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" s="26"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="30"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="28"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="30"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="28">
+        <v>1</v>
+      </c>
+      <c r="D94" s="28"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="30"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="28"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="28">
         <v>3</v>
       </c>
-      <c r="J56" s="48"/>
-      <c r="K56" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="50"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48" t="s">
+      <c r="J95" s="28"/>
+      <c r="K95" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="28"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="28">
+        <v>0</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" s="26"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="30"/>
+    </row>
+    <row r="97" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="28"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="28">
+        <v>1</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H97" s="26"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="30"/>
+    </row>
+    <row r="98" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="28"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="28">
+        <v>2</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H98" s="26"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="30"/>
+    </row>
+    <row r="99" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A99" s="28"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="28">
+        <v>3</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H99" s="26"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="30"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="28"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="30"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="28"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="48"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="48">
+      <c r="E101" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="28">
         <v>3</v>
       </c>
-      <c r="J58" s="48"/>
-      <c r="K58" s="50">
+      <c r="J101" s="28"/>
+      <c r="K101" s="30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="28"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="28">
+        <v>0</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H102" s="26"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="30"/>
+    </row>
+    <row r="103" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A103" s="28"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="48">
+      <c r="G103" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H103" s="26"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="30"/>
+    </row>
+    <row r="104" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="28"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="28">
+        <v>2</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H104" s="26"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="30"/>
+    </row>
+    <row r="105" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="A105" s="28"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="28">
+        <v>3</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H105" s="26"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="30"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="28"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="30"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="28"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="28">
+        <v>3</v>
+      </c>
+      <c r="J107" s="28"/>
+      <c r="K107" s="30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A108" s="28"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="28">
         <v>0</v>
       </c>
-      <c r="G59" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" s="46"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="50"/>
-    </row>
-    <row r="60" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="48">
+      <c r="G108" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H108" s="26"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="30"/>
+    </row>
+    <row r="109" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A109" s="28"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="28">
         <v>1</v>
       </c>
-      <c r="G60" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="50"/>
-    </row>
-    <row r="61" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="48">
+      <c r="G109" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="26"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="30"/>
+    </row>
+    <row r="110" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A110" s="28"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="28">
         <v>2</v>
       </c>
-      <c r="G61" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="50"/>
-    </row>
-    <row r="62" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="48">
+      <c r="G110" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H110" s="26"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="30"/>
+    </row>
+    <row r="111" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A111" s="28"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="28">
         <v>3</v>
       </c>
-      <c r="G62" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="46"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="50"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="48"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="50"/>
-    </row>
-    <row r="64" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="48"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64" s="48"/>
-      <c r="G64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="48">
+      <c r="G111" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H111" s="26"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="30"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="28"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="30"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A113" s="28"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="28">
         <v>3</v>
       </c>
-      <c r="J64" s="48"/>
-      <c r="K64" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="50"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48" t="s">
+      <c r="J113" s="28"/>
+      <c r="K113" s="30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A114" s="28"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="F114" s="28">
+        <v>0</v>
+      </c>
+      <c r="G114" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H114" s="26"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="30"/>
+    </row>
+    <row r="115" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A115" s="28"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="28">
+        <v>1</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" s="26"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="30"/>
+    </row>
+    <row r="116" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A116" s="28"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="28">
+        <v>2</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H116" s="26"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="30"/>
+    </row>
+    <row r="117" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A117" s="28"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="28">
+        <v>3</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H117" s="26"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="30"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A118" s="28"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="30"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A119" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="28">
+        <v>1</v>
+      </c>
+      <c r="D119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="30"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A120" s="28"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="48">
+      <c r="E120" t="s">
+        <v>121</v>
+      </c>
+      <c r="F120" s="28"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="28">
         <v>3</v>
       </c>
-      <c r="J66" s="48"/>
-      <c r="K66" s="50">
+      <c r="J120" s="28"/>
+      <c r="K120" s="30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A121" s="28"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="F121" s="28">
+        <v>0</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H121" s="26"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="30"/>
+    </row>
+    <row r="122" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A122" s="28"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="F122" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="48">
-        <v>0</v>
-      </c>
-      <c r="G67" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="50"/>
-    </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="48"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="48">
+      <c r="G122" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H122" s="26"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="30"/>
+    </row>
+    <row r="123" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A123" s="28"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="F123" s="28">
+        <v>2</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H123" s="26"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="30"/>
+    </row>
+    <row r="124" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="A124" s="28"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="F124" s="28">
+        <v>3</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H124" s="26"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="30"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A125" s="28"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="30"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A126" s="28"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" s="28"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="28">
         <v>1</v>
       </c>
-      <c r="G68" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="46"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="50"/>
-    </row>
-    <row r="69" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A69" s="48"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="48">
+      <c r="J126" s="28"/>
+      <c r="K126" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A127" s="28"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="30"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128" s="28"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128" s="28"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="28">
         <v>2</v>
       </c>
-      <c r="G69" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="46"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="50"/>
-    </row>
-    <row r="70" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="48"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="48">
-        <v>3</v>
-      </c>
-      <c r="G70" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="46"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="50"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="48"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="50"/>
-    </row>
-    <row r="72" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="48"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F72" s="48"/>
-      <c r="G72" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" s="46"/>
-      <c r="I72" s="48">
-        <v>3</v>
-      </c>
-      <c r="J72" s="48"/>
-      <c r="K72" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="48"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="50"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="48"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F74" s="48"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="48">
-        <v>3</v>
-      </c>
-      <c r="J74" s="48"/>
-      <c r="K74" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="48"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="48">
-        <v>0</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" s="46"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="50"/>
-    </row>
-    <row r="76" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="48">
-        <v>1</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H76" s="46"/>
-      <c r="I76" s="48"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="50"/>
-    </row>
-    <row r="77" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A77" s="48"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="48">
-        <v>2</v>
-      </c>
-      <c r="G77" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" s="46"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="50"/>
-    </row>
-    <row r="78" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A78" s="48"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="48">
-        <v>3</v>
-      </c>
-      <c r="G78" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="50"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="48"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="50"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" s="48"/>
-      <c r="G80" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="46"/>
-      <c r="I80" s="48">
-        <v>3</v>
-      </c>
-      <c r="J80" s="48"/>
-      <c r="K80" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="48"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="50"/>
-    </row>
-    <row r="82" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="48"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" s="48"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="48">
-        <v>3</v>
-      </c>
-      <c r="J82" s="48"/>
-      <c r="K82" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="48"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="48">
-        <v>0</v>
-      </c>
-      <c r="G83" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83" s="46"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="50"/>
-    </row>
-    <row r="84" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="48"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="48">
-        <v>1</v>
-      </c>
-      <c r="G84" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="46"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="50"/>
-    </row>
-    <row r="85" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="48"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="48">
-        <v>2</v>
-      </c>
-      <c r="G85" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="46"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="50"/>
-    </row>
-    <row r="86" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A86" s="48"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="48">
-        <v>3</v>
-      </c>
-      <c r="G86" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" s="46"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="50"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="48"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="50"/>
-    </row>
-    <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="48"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="48">
-        <v>3</v>
-      </c>
-      <c r="J88" s="48"/>
-      <c r="K88" s="50">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A89" s="48"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="48">
-        <v>0</v>
-      </c>
-      <c r="G89" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H89" s="46"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="50"/>
-    </row>
-    <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A90" s="48"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="48">
-        <v>1</v>
-      </c>
-      <c r="G90" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="H90" s="46"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="50"/>
-    </row>
-    <row r="91" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A91" s="48"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="48">
-        <v>2</v>
-      </c>
-      <c r="G91" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" s="46"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="50"/>
-    </row>
-    <row r="92" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A92" s="48"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="48">
-        <v>3</v>
-      </c>
-      <c r="G92" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="H92" s="46"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="50"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="48"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="50"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="48">
-        <v>1</v>
-      </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="50"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="48"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="48">
-        <v>3</v>
-      </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="50">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A96" s="48"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="48">
-        <v>0</v>
-      </c>
-      <c r="G96" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H96" s="46"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="50"/>
-    </row>
-    <row r="97" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="48"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="48">
-        <v>1</v>
-      </c>
-      <c r="G97" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H97" s="46"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="50"/>
-    </row>
-    <row r="98" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="48"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="48">
-        <v>2</v>
-      </c>
-      <c r="G98" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98" s="46"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="50"/>
-    </row>
-    <row r="99" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A99" s="48"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="48">
-        <v>3</v>
-      </c>
-      <c r="G99" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99" s="46"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="50"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="48"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="50"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="48"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="48">
-        <v>3</v>
-      </c>
-      <c r="J101" s="48"/>
-      <c r="K101" s="50">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="48"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="48">
-        <v>0</v>
-      </c>
-      <c r="G102" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H102" s="46"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="50"/>
-    </row>
-    <row r="103" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A103" s="48"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="48">
-        <v>1</v>
-      </c>
-      <c r="G103" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H103" s="46"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="50"/>
-    </row>
-    <row r="104" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="48"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="48">
-        <v>2</v>
-      </c>
-      <c r="G104" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H104" s="46"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="50"/>
-    </row>
-    <row r="105" spans="1:11" ht="42" x14ac:dyDescent="0.15">
-      <c r="A105" s="48"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="48">
-        <v>3</v>
-      </c>
-      <c r="G105" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H105" s="46"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="50"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="48"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="50"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="48"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="F107" s="48"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="48">
-        <v>3</v>
-      </c>
-      <c r="J107" s="48"/>
-      <c r="K107" s="50">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A108" s="48"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="48">
-        <v>0</v>
-      </c>
-      <c r="G108" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H108" s="46"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="50"/>
-    </row>
-    <row r="109" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A109" s="48"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="48">
-        <v>1</v>
-      </c>
-      <c r="G109" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H109" s="46"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="50"/>
-    </row>
-    <row r="110" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="48"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="48">
-        <v>2</v>
-      </c>
-      <c r="G110" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H110" s="46"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="50"/>
-    </row>
-    <row r="111" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A111" s="48"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="48">
-        <v>3</v>
-      </c>
-      <c r="G111" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H111" s="46"/>
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="50"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="48"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="50"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="48"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F113" s="48"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="48">
-        <v>3</v>
-      </c>
-      <c r="J113" s="48"/>
-      <c r="K113" s="50">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A114" s="48"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="F114" s="48">
-        <v>0</v>
-      </c>
-      <c r="G114" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H114" s="46"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
-      <c r="K114" s="50"/>
-    </row>
-    <row r="115" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A115" s="48"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="48">
-        <v>1</v>
-      </c>
-      <c r="G115" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="H115" s="46"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="50"/>
-    </row>
-    <row r="116" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A116" s="48"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="48">
-        <v>2</v>
-      </c>
-      <c r="G116" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="H116" s="46"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="50"/>
-    </row>
-    <row r="117" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A117" s="48"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="48">
-        <v>3</v>
-      </c>
-      <c r="G117" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H117" s="46"/>
-      <c r="I117" s="48"/>
-      <c r="J117" s="48"/>
-      <c r="K117" s="50"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="48"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="50"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C119" s="48">
-        <v>1</v>
-      </c>
-      <c r="D119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="48"/>
-      <c r="J119" s="48"/>
-      <c r="K119" s="50"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="48"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" t="s">
-        <v>122</v>
-      </c>
-      <c r="F120" s="48"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="48">
-        <v>3</v>
-      </c>
-      <c r="J120" s="48"/>
-      <c r="K120" s="50">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A121" s="48"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="F121" s="48">
-        <v>0</v>
-      </c>
-      <c r="G121" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="H121" s="46"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="50"/>
-    </row>
-    <row r="122" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A122" s="48"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="F122" s="48">
-        <v>1</v>
-      </c>
-      <c r="G122" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="H122" s="46"/>
-      <c r="I122" s="48"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="50"/>
-    </row>
-    <row r="123" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A123" s="48"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="F123" s="48">
-        <v>2</v>
-      </c>
-      <c r="G123" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="H123" s="46"/>
-      <c r="I123" s="48"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="50"/>
-    </row>
-    <row r="124" spans="1:11" ht="28" x14ac:dyDescent="0.15">
-      <c r="A124" s="48"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-      <c r="F124" s="48">
-        <v>3</v>
-      </c>
-      <c r="G124" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H124" s="46"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="50"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="48"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="48"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="50"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="48"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" t="s">
-        <v>127</v>
-      </c>
-      <c r="F126" s="48"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="48">
-        <v>1</v>
-      </c>
-      <c r="J126" s="48"/>
-      <c r="K126" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="48"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="50"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="48"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E128" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="48"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="48">
-        <v>2</v>
-      </c>
-      <c r="J128" s="48"/>
-      <c r="K128" s="50">
+      <c r="J128" s="28"/>
+      <c r="K128" s="30">
         <v>1</v>
       </c>
     </row>
@@ -4386,7 +4385,7 @@
         <v>38</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M130" s="5" t="s">
         <v>40</v>
@@ -4398,10 +4397,10 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="C131" s="12">
         <v>1</v>
@@ -4433,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="16"/>
@@ -4456,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H133" s="16"/>
       <c r="I133" s="12"/>
@@ -4473,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H134" s="16"/>
       <c r="I134" s="12"/>
@@ -4490,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="12"/>
@@ -4507,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H136" s="16"/>
       <c r="I136" s="12"/>
@@ -4532,10 +4531,10 @@
       <c r="B138" s="16"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="20"/>
@@ -4563,10 +4562,10 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C140" s="12">
         <v>1</v>
@@ -4588,7 +4587,7 @@
         <v>44</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="20"/>
@@ -4611,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H142" s="16"/>
       <c r="I142" s="12"/>
@@ -4628,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="12"/>
@@ -4645,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H144" s="16"/>
       <c r="I144" s="12"/>
@@ -4662,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H145" s="16"/>
       <c r="I145" s="12"/>
@@ -4690,7 +4689,7 @@
         <v>44</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="20"/>
@@ -4713,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H148" s="16"/>
       <c r="I148" s="12"/>
@@ -4730,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H149" s="16"/>
       <c r="I149" s="12"/>
@@ -4747,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H150" s="16"/>
       <c r="I150" s="12"/>
@@ -4764,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H151" s="16"/>
       <c r="I151" s="12"/>
@@ -4792,7 +4791,7 @@
         <v>44</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="20"/>
@@ -4815,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H154" s="16"/>
       <c r="I154" s="12"/>
@@ -4832,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H155" s="16"/>
       <c r="I155" s="12"/>
@@ -4849,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H156" s="16"/>
       <c r="I156" s="12"/>
@@ -4866,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H157" s="16"/>
       <c r="I157" s="12"/>
@@ -4894,7 +4893,7 @@
         <v>44</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="20"/>
@@ -4917,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H160" s="16"/>
       <c r="I160" s="12"/>
@@ -4934,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H161" s="16"/>
       <c r="I161" s="12"/>
@@ -4951,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H162" s="16"/>
       <c r="I162" s="12"/>
@@ -4968,7 +4967,7 @@
         <v>3</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H163" s="16"/>
       <c r="I163" s="12"/>
@@ -4977,10 +4976,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="C164" s="12">
         <v>1</v>
@@ -4999,10 +4998,10 @@
       <c r="B165" s="16"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="20"/>
@@ -5020,14 +5019,14 @@
       <c r="B166" s="16"/>
       <c r="C166" s="12"/>
       <c r="D166" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H166" s="16"/>
       <c r="I166" s="12">
@@ -5043,14 +5042,14 @@
       <c r="B167" s="16"/>
       <c r="C167" s="12"/>
       <c r="D167" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F167" s="12"/>
       <c r="G167" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H167" s="16"/>
       <c r="I167" s="12">
@@ -5066,14 +5065,14 @@
       <c r="B168" s="16"/>
       <c r="C168" s="12"/>
       <c r="D168" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H168" s="16"/>
       <c r="I168" s="12">
@@ -5089,10 +5088,10 @@
       <c r="B169" s="16"/>
       <c r="C169" s="12"/>
       <c r="D169" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="20"/>
@@ -5120,10 +5119,10 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="C171" s="12">
         <v>1</v>
@@ -5142,10 +5141,10 @@
       <c r="B172" s="16"/>
       <c r="C172" s="12"/>
       <c r="D172" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="20"/>
@@ -5163,14 +5162,14 @@
       <c r="B173" s="16"/>
       <c r="C173" s="12"/>
       <c r="D173" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F173" s="12"/>
       <c r="G173" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H173" s="16"/>
       <c r="I173" s="12">
@@ -5186,14 +5185,14 @@
       <c r="B174" s="16"/>
       <c r="C174" s="12"/>
       <c r="D174" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F174" s="12"/>
       <c r="G174" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H174" s="16"/>
       <c r="I174" s="12">
@@ -5209,14 +5208,14 @@
       <c r="B175" s="16"/>
       <c r="C175" s="12"/>
       <c r="D175" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F175" s="12"/>
       <c r="G175" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H175" s="16"/>
       <c r="I175" s="12">
@@ -5232,14 +5231,14 @@
       <c r="B176" s="16"/>
       <c r="C176" s="12"/>
       <c r="D176" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H176" s="16"/>
       <c r="I176" s="12">
@@ -5265,10 +5264,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="C178" s="12">
         <v>1</v>
@@ -5287,14 +5286,14 @@
       <c r="B179" s="16"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F179" s="12"/>
       <c r="G179" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H179" s="16"/>
       <c r="I179" s="12">
@@ -5310,14 +5309,14 @@
       <c r="B180" s="16"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H180" s="16"/>
       <c r="I180" s="12">
@@ -5333,10 +5332,10 @@
       <c r="B181" s="16"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="20"/>
@@ -5354,10 +5353,10 @@
       <c r="B182" s="16"/>
       <c r="C182" s="12"/>
       <c r="D182" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="20"/>
@@ -5375,14 +5374,14 @@
       <c r="B183" s="16"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H183" s="16"/>
       <c r="I183" s="12">
@@ -5398,10 +5397,10 @@
       <c r="B184" s="16"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="20"/>
@@ -5419,14 +5418,14 @@
       <c r="B185" s="16"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H185" s="16"/>
       <c r="I185" s="12">
@@ -5452,10 +5451,10 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="C187" s="12">
         <v>1</v>
@@ -5474,14 +5473,14 @@
       <c r="B188" s="16"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H188" s="16"/>
       <c r="I188" s="12">
@@ -5497,14 +5496,14 @@
       <c r="B189" s="16"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H189" s="16"/>
       <c r="I189" s="12">
@@ -5520,14 +5519,14 @@
       <c r="B190" s="16"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H190" s="16"/>
       <c r="I190" s="12">
@@ -5543,14 +5542,14 @@
       <c r="B191" s="16"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E191" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H191" s="16"/>
       <c r="I191" s="12">
@@ -5576,10 +5575,10 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A193" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="C193" s="12">
         <v>1</v>
@@ -5598,14 +5597,14 @@
       <c r="B194" s="16"/>
       <c r="C194" s="12"/>
       <c r="D194" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F194" s="12"/>
       <c r="G194" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H194" s="16"/>
       <c r="I194" s="12">
@@ -5621,10 +5620,10 @@
       <c r="B195" s="16"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F195" s="12"/>
       <c r="G195" s="20"/>
@@ -5642,10 +5641,10 @@
       <c r="B196" s="16"/>
       <c r="C196" s="12"/>
       <c r="D196" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="20"/>
@@ -5663,14 +5662,14 @@
       <c r="B197" s="16"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F197" s="12"/>
       <c r="G197" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H197" s="16"/>
       <c r="I197" s="12">
@@ -5686,14 +5685,14 @@
       <c r="B198" s="16"/>
       <c r="C198" s="12"/>
       <c r="D198" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F198" s="12"/>
       <c r="G198" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H198" s="16"/>
       <c r="I198" s="12">
@@ -5719,10 +5718,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A200" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C200" s="12">
         <v>1</v>
@@ -5741,14 +5740,14 @@
       <c r="B201" s="16"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F201" s="12"/>
       <c r="G201" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H201" s="16"/>
       <c r="I201" s="12">
@@ -5764,14 +5763,14 @@
       <c r="B202" s="16"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H202" s="16"/>
       <c r="I202" s="12">
@@ -5787,14 +5786,14 @@
       <c r="B203" s="16"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H203" s="16"/>
       <c r="I203" s="12">
@@ -5869,7 +5868,7 @@
         <v>38</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M205" s="5" t="s">
         <v>40</v>
@@ -5881,10 +5880,10 @@
     </row>
     <row r="206" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A206" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B206" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="C206" s="12">
         <v>2</v>
@@ -5913,14 +5912,14 @@
       <c r="B207" s="16"/>
       <c r="C207" s="12"/>
       <c r="D207" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F207" s="12"/>
       <c r="G207" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H207" s="16"/>
       <c r="I207" s="12">
@@ -5936,14 +5935,14 @@
       <c r="B208" s="16"/>
       <c r="C208" s="12"/>
       <c r="D208" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F208" s="12"/>
       <c r="G208" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H208" s="16"/>
       <c r="I208" s="12">
@@ -5969,10 +5968,10 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A210" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C210" s="12">
         <v>2</v>
@@ -5991,14 +5990,14 @@
       <c r="B211" s="16"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H211" s="16"/>
       <c r="I211" s="12">
@@ -6014,14 +6013,14 @@
       <c r="B212" s="16"/>
       <c r="C212" s="12"/>
       <c r="D212" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F212" s="12"/>
       <c r="G212" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H212" s="16"/>
       <c r="I212" s="12">
@@ -6037,14 +6036,14 @@
       <c r="B213" s="16"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F213" s="12"/>
       <c r="G213" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H213" s="16"/>
       <c r="I213" s="12">
@@ -6070,10 +6069,10 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="C215" s="12">
         <v>2</v>
@@ -6092,14 +6091,14 @@
       <c r="B216" s="16"/>
       <c r="C216" s="12"/>
       <c r="D216" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216" s="12"/>
       <c r="G216" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H216" s="16"/>
       <c r="I216" s="12">
@@ -6112,10 +6111,10 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B217" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="B217" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="C217" s="12">
         <v>2</v>
@@ -6134,14 +6133,14 @@
       <c r="B218" s="16"/>
       <c r="C218" s="12"/>
       <c r="D218" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F218" s="12"/>
       <c r="G218" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H218" s="16"/>
       <c r="I218" s="12">
@@ -6167,10 +6166,10 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A220" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B220" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>242</v>
       </c>
       <c r="C220" s="12">
         <v>2</v>
@@ -6189,14 +6188,14 @@
       <c r="B221" s="16"/>
       <c r="C221" s="12"/>
       <c r="D221" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F221" s="12"/>
       <c r="G221" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H221" s="16"/>
       <c r="I221" s="12">
@@ -6212,14 +6211,14 @@
       <c r="B222" s="16"/>
       <c r="C222" s="12"/>
       <c r="D222" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F222" s="12"/>
       <c r="G222" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H222" s="16"/>
       <c r="I222" s="12">
@@ -6235,14 +6234,14 @@
       <c r="B223" s="16"/>
       <c r="C223" s="12"/>
       <c r="D223" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F223" s="12"/>
       <c r="G223" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H223" s="16"/>
       <c r="I223" s="12">
@@ -6258,14 +6257,14 @@
       <c r="B224" s="16"/>
       <c r="C224" s="12"/>
       <c r="D224" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F224" s="12"/>
       <c r="G224" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H224" s="16"/>
       <c r="I224" s="12">
@@ -6281,14 +6280,14 @@
       <c r="B225" s="16"/>
       <c r="C225" s="12"/>
       <c r="D225" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F225" s="12"/>
       <c r="G225" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H225" s="16"/>
       <c r="I225" s="12">
@@ -6304,14 +6303,14 @@
       <c r="B226" s="16"/>
       <c r="C226" s="12"/>
       <c r="D226" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F226" s="12"/>
       <c r="G226" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H226" s="16"/>
       <c r="I226" s="12">
@@ -6327,14 +6326,14 @@
       <c r="B227" s="16"/>
       <c r="C227" s="12"/>
       <c r="D227" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F227" s="12"/>
       <c r="G227" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H227" s="16"/>
       <c r="I227" s="12">
@@ -6360,10 +6359,10 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B229" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="B229" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="C229" s="12">
         <v>2</v>
@@ -6382,14 +6381,14 @@
       <c r="B230" s="16"/>
       <c r="C230" s="12"/>
       <c r="D230" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F230" s="12"/>
       <c r="G230" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H230" s="16"/>
       <c r="I230" s="12">
@@ -6405,14 +6404,14 @@
       <c r="B231" s="16"/>
       <c r="C231" s="12"/>
       <c r="D231" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F231" s="12"/>
       <c r="G231" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H231" s="16"/>
       <c r="I231" s="12">
@@ -6428,14 +6427,14 @@
       <c r="B232" s="16"/>
       <c r="C232" s="12"/>
       <c r="D232" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F232" s="12"/>
       <c r="G232" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H232" s="16"/>
       <c r="I232" s="12">
@@ -6451,14 +6450,14 @@
       <c r="B233" s="16"/>
       <c r="C233" s="12"/>
       <c r="D233" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F233" s="12"/>
       <c r="G233" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H233" s="16"/>
       <c r="I233" s="12">
@@ -6474,14 +6473,14 @@
       <c r="B234" s="16"/>
       <c r="C234" s="12"/>
       <c r="D234" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F234" s="12"/>
       <c r="G234" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H234" s="16"/>
       <c r="I234" s="12">
@@ -6497,14 +6496,14 @@
       <c r="B235" s="16"/>
       <c r="C235" s="12"/>
       <c r="D235" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F235" s="12"/>
       <c r="G235" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H235" s="16"/>
       <c r="I235" s="12">
@@ -6520,14 +6519,14 @@
       <c r="B236" s="16"/>
       <c r="C236" s="12"/>
       <c r="D236" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F236" s="12"/>
       <c r="G236" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H236" s="16"/>
       <c r="I236" s="12">
@@ -6543,14 +6542,14 @@
       <c r="B237" s="16"/>
       <c r="C237" s="12"/>
       <c r="D237" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F237" s="12"/>
       <c r="G237" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H237" s="16"/>
       <c r="I237" s="12">
@@ -6576,10 +6575,10 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A239" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B239" s="16" t="s">
         <v>274</v>
-      </c>
-      <c r="B239" s="16" t="s">
-        <v>275</v>
       </c>
       <c r="C239" s="12">
         <v>2</v>
@@ -6598,14 +6597,14 @@
       <c r="B240" s="16"/>
       <c r="C240" s="12"/>
       <c r="D240" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F240" s="12"/>
       <c r="G240" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H240" s="16"/>
       <c r="I240" s="12">
@@ -6621,14 +6620,14 @@
       <c r="B241" s="16"/>
       <c r="C241" s="12"/>
       <c r="D241" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F241" s="12"/>
       <c r="G241" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H241" s="16"/>
       <c r="I241" s="12">
@@ -6644,14 +6643,14 @@
       <c r="B242" s="16"/>
       <c r="C242" s="12"/>
       <c r="D242" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F242" s="12"/>
       <c r="G242" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H242" s="16"/>
       <c r="I242" s="12">
@@ -6726,7 +6725,7 @@
         <v>38</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M244" s="5" t="s">
         <v>40</v>
@@ -6738,10 +6737,10 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A245" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B245" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="B245" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="C245" s="12">
         <v>2</v>
@@ -6763,7 +6762,7 @@
         <v>44</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F246" s="12"/>
       <c r="G246" s="20"/>
@@ -6786,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H247" s="16"/>
       <c r="I247" s="12"/>
@@ -6803,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H248" s="16"/>
       <c r="I248" s="12"/>
@@ -6820,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="G249" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H249" s="16"/>
       <c r="I249" s="12"/>
@@ -6837,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H250" s="16"/>
       <c r="I250" s="12"/>
@@ -6865,7 +6864,7 @@
         <v>44</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F252" s="12"/>
       <c r="G252" s="20"/>
@@ -6888,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H253" s="16"/>
       <c r="I253" s="12"/>
@@ -6905,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H254" s="16"/>
       <c r="I254" s="12"/>
@@ -6922,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H255" s="16"/>
       <c r="I255" s="12"/>
@@ -6939,7 +6938,7 @@
         <v>3</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H256" s="16"/>
       <c r="I256" s="12"/>
@@ -6967,7 +6966,7 @@
         <v>44</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F258" s="12"/>
       <c r="G258" s="20"/>
@@ -6990,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H259" s="16"/>
       <c r="I259" s="12"/>
@@ -7007,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="G260" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H260" s="16"/>
       <c r="I260" s="12"/>
@@ -7024,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H261" s="16"/>
       <c r="I261" s="12"/>
@@ -7041,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="G262" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H262" s="16"/>
       <c r="I262" s="12"/>
@@ -7069,7 +7068,7 @@
         <v>44</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F264" s="12"/>
       <c r="G264" s="20"/>
@@ -7092,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H265" s="16"/>
       <c r="I265" s="12"/>
@@ -7109,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H266" s="16"/>
       <c r="I266" s="12"/>
@@ -7126,7 +7125,7 @@
         <v>2</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H267" s="16"/>
       <c r="I267" s="12"/>
@@ -7143,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H268" s="16"/>
       <c r="I268" s="12"/>
@@ -7171,7 +7170,7 @@
         <v>44</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F270" s="12"/>
       <c r="G270" s="20"/>
@@ -7194,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="12"/>
@@ -7211,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="12"/>
@@ -7228,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="12"/>
@@ -7245,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="12"/>
@@ -7267,10 +7266,10 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A276" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B276" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="B276" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="C276" s="12">
         <v>2</v>
@@ -7289,14 +7288,14 @@
       <c r="B277" s="16"/>
       <c r="C277" s="12"/>
       <c r="D277" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F277" s="12"/>
       <c r="G277" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H277" s="16"/>
       <c r="I277" s="12">
@@ -7322,10 +7321,10 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B279" s="16" t="s">
         <v>302</v>
-      </c>
-      <c r="B279" s="16" t="s">
-        <v>303</v>
       </c>
       <c r="C279" s="12">
         <v>2</v>
@@ -7344,14 +7343,14 @@
       <c r="B280" s="16"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F280" s="12"/>
       <c r="G280" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H280" s="16"/>
       <c r="I280" s="12">
@@ -7367,14 +7366,14 @@
       <c r="B281" s="16"/>
       <c r="C281" s="12"/>
       <c r="D281" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F281" s="12"/>
       <c r="G281" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H281" s="16"/>
       <c r="I281" s="12">
@@ -7390,14 +7389,14 @@
       <c r="B282" s="16"/>
       <c r="C282" s="12"/>
       <c r="D282" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F282" s="12"/>
       <c r="G282" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H282" s="16"/>
       <c r="I282" s="12">
@@ -7413,14 +7412,14 @@
       <c r="B283" s="16"/>
       <c r="C283" s="12"/>
       <c r="D283" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F283" s="12"/>
       <c r="G283" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H283" s="16"/>
       <c r="I283" s="12">
@@ -7436,14 +7435,14 @@
       <c r="B284" s="16"/>
       <c r="C284" s="12"/>
       <c r="D284" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F284" s="12"/>
       <c r="G284" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H284" s="16"/>
       <c r="I284" s="12">
@@ -7459,14 +7458,14 @@
       <c r="B285" s="16"/>
       <c r="C285" s="12"/>
       <c r="D285" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F285" s="12"/>
       <c r="G285" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H285" s="16"/>
       <c r="I285" s="12">
@@ -7482,14 +7481,14 @@
       <c r="B286" s="16"/>
       <c r="C286" s="12"/>
       <c r="D286" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F286" s="12"/>
       <c r="G286" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H286" s="16"/>
       <c r="I286" s="12">
@@ -7515,10 +7514,10 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A288" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B288" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="B288" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="C288" s="12">
         <v>2</v>
@@ -7537,14 +7536,14 @@
       <c r="B289" s="16"/>
       <c r="C289" s="12"/>
       <c r="D289" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F289" s="12"/>
       <c r="G289" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H289" s="16"/>
       <c r="I289" s="12">
@@ -7560,14 +7559,14 @@
       <c r="B290" s="16"/>
       <c r="C290" s="12"/>
       <c r="D290" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F290" s="12"/>
       <c r="G290" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H290" s="16"/>
       <c r="I290" s="12">
@@ -7583,14 +7582,14 @@
       <c r="B291" s="16"/>
       <c r="C291" s="12"/>
       <c r="D291" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F291" s="12"/>
       <c r="G291" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H291" s="16"/>
       <c r="I291" s="12">
@@ -7606,14 +7605,14 @@
       <c r="B292" s="16"/>
       <c r="C292" s="12"/>
       <c r="D292" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F292" s="12"/>
       <c r="G292" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H292" s="16"/>
       <c r="I292" s="12">
@@ -7629,14 +7628,14 @@
       <c r="B293" s="16"/>
       <c r="C293" s="12"/>
       <c r="D293" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F293" s="12"/>
       <c r="G293" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H293" s="16"/>
       <c r="I293" s="12">
@@ -7652,14 +7651,14 @@
       <c r="B294" s="16"/>
       <c r="C294" s="12"/>
       <c r="D294" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F294" s="12"/>
       <c r="G294" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H294" s="16"/>
       <c r="I294" s="12">
@@ -7675,14 +7674,14 @@
       <c r="B295" s="16"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F295" s="12"/>
       <c r="G295" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H295" s="16"/>
       <c r="I295" s="12">
@@ -7698,14 +7697,14 @@
       <c r="B296" s="16"/>
       <c r="C296" s="12"/>
       <c r="D296" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F296" s="12"/>
       <c r="G296" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H296" s="16"/>
       <c r="I296" s="12">
@@ -7721,14 +7720,14 @@
       <c r="B297" s="16"/>
       <c r="C297" s="12"/>
       <c r="D297" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F297" s="12"/>
       <c r="G297" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H297" s="16"/>
       <c r="I297" s="12">
@@ -7754,10 +7753,10 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B299" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="B299" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="C299" s="12">
         <v>2</v>
@@ -7776,14 +7775,14 @@
       <c r="B300" s="16"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F300" s="12"/>
       <c r="G300" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H300" s="16"/>
       <c r="I300" s="12">
@@ -7799,14 +7798,14 @@
       <c r="B301" s="16"/>
       <c r="C301" s="12"/>
       <c r="D301" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F301" s="12"/>
       <c r="G301" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H301" s="16"/>
       <c r="I301" s="12">
@@ -7822,14 +7821,14 @@
       <c r="B302" s="16"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F302" s="12"/>
       <c r="G302" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H302" s="16"/>
       <c r="I302" s="12">
@@ -7845,14 +7844,14 @@
       <c r="B303" s="16"/>
       <c r="C303" s="12"/>
       <c r="D303" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F303" s="12"/>
       <c r="G303" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H303" s="16"/>
       <c r="I303" s="12">
@@ -7868,14 +7867,14 @@
       <c r="B304" s="16"/>
       <c r="C304" s="12"/>
       <c r="D304" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F304" s="12"/>
       <c r="G304" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H304" s="16"/>
       <c r="I304" s="12">
@@ -7901,10 +7900,10 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A306" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C306" s="12">
         <v>2</v>
@@ -7923,14 +7922,14 @@
       <c r="B307" s="16"/>
       <c r="C307" s="12"/>
       <c r="D307" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F307" s="12"/>
       <c r="G307" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H307" s="16"/>
       <c r="I307" s="12">
@@ -7956,10 +7955,10 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A309" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C309" s="12">
         <v>2</v>
@@ -7978,14 +7977,14 @@
       <c r="B310" s="16"/>
       <c r="C310" s="12"/>
       <c r="D310" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F310" s="12"/>
       <c r="G310" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H310" s="16"/>
       <c r="I310" s="12">
@@ -8011,10 +8010,10 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A312" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B312" s="16" t="s">
         <v>350</v>
-      </c>
-      <c r="B312" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="C312" s="12">
         <v>2</v>
@@ -8033,14 +8032,14 @@
       <c r="B313" s="16"/>
       <c r="C313" s="12"/>
       <c r="D313" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F313" s="12"/>
       <c r="G313" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H313" s="16"/>
       <c r="I313" s="12">
@@ -8115,7 +8114,7 @@
         <v>38</v>
       </c>
       <c r="L315" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M315" s="5" t="s">
         <v>40</v>
@@ -8127,10 +8126,10 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A316" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B316" s="16" t="s">
         <v>355</v>
-      </c>
-      <c r="B316" s="16" t="s">
-        <v>356</v>
       </c>
       <c r="C316" s="12">
         <v>3</v>
@@ -8160,7 +8159,7 @@
         <v>44</v>
       </c>
       <c r="E317" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F317" s="12"/>
       <c r="G317" s="16"/>
@@ -8183,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H318" s="16"/>
       <c r="I318" s="12"/>
@@ -8200,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H319" s="16"/>
       <c r="I319" s="12"/>
@@ -8217,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H320" s="16"/>
       <c r="I320" s="12"/>
@@ -8234,7 +8233,7 @@
         <v>3</v>
       </c>
       <c r="G321" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H321" s="16"/>
       <c r="I321" s="12"/>
@@ -8262,7 +8261,7 @@
         <v>44</v>
       </c>
       <c r="E323" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F323" s="12"/>
       <c r="G323" s="21"/>
@@ -8285,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H324" s="16"/>
       <c r="I324" s="12"/>
@@ -8302,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H325" s="16"/>
       <c r="I325" s="12"/>
@@ -8319,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="G326" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H326" s="16"/>
       <c r="I326" s="12"/>
@@ -8336,7 +8335,7 @@
         <v>3</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H327" s="16"/>
       <c r="I327" s="12"/>
@@ -8361,14 +8360,14 @@
       <c r="B329" s="16"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E329" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F329" s="12"/>
       <c r="G329" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H329" s="16"/>
       <c r="I329" s="12">
@@ -8384,14 +8383,14 @@
       <c r="B330" s="16"/>
       <c r="C330" s="12"/>
       <c r="D330" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E330" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F330" s="12"/>
       <c r="G330" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H330" s="16"/>
       <c r="I330" s="12">
@@ -8407,14 +8406,14 @@
       <c r="B331" s="16"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E331" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F331" s="12"/>
       <c r="G331" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H331" s="16"/>
       <c r="I331" s="12">
@@ -8430,14 +8429,14 @@
       <c r="B332" s="16"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E332" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F332" s="12"/>
       <c r="G332" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H332" s="16"/>
       <c r="I332" s="12">
@@ -8453,14 +8452,14 @@
       <c r="B333" s="16"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E333" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F333" s="12"/>
       <c r="G333" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H333" s="16"/>
       <c r="I333" s="12">
@@ -8486,10 +8485,10 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A335" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B335" s="16" t="s">
         <v>377</v>
-      </c>
-      <c r="B335" s="16" t="s">
-        <v>378</v>
       </c>
       <c r="C335" s="12">
         <v>3</v>
@@ -8508,14 +8507,14 @@
       <c r="B336" s="16"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E336" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F336" s="12"/>
       <c r="G336" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H336" s="16"/>
       <c r="I336" s="12">
@@ -8531,10 +8530,10 @@
       <c r="B337" s="16"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E337" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F337" s="12"/>
       <c r="G337" s="20"/>
@@ -8552,10 +8551,10 @@
       <c r="B338" s="16"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E338" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F338" s="12"/>
       <c r="G338" s="16"/>
@@ -8573,10 +8572,10 @@
       <c r="B339" s="16"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E339" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F339" s="12"/>
       <c r="G339" s="16"/>
@@ -8594,14 +8593,14 @@
       <c r="B340" s="16"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E340" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F340" s="12"/>
       <c r="G340" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H340" s="16"/>
       <c r="I340" s="12">
@@ -8617,14 +8616,14 @@
       <c r="B341" s="16"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E341" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F341" s="12"/>
       <c r="G341" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H341" s="16"/>
       <c r="I341" s="12">
@@ -8640,10 +8639,10 @@
       <c r="B342" s="16"/>
       <c r="C342" s="12"/>
       <c r="D342" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E342" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F342" s="12"/>
       <c r="G342" s="16"/>
@@ -8671,10 +8670,10 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A344" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B344" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="B344" s="16" t="s">
-        <v>390</v>
       </c>
       <c r="C344" s="12">
         <v>3</v>
@@ -8693,10 +8692,10 @@
       <c r="B345" s="16"/>
       <c r="C345" s="12"/>
       <c r="D345" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E345" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F345" s="12"/>
       <c r="G345" s="16"/>
@@ -8714,10 +8713,10 @@
       <c r="B346" s="16"/>
       <c r="C346" s="12"/>
       <c r="D346" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E346" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F346" s="12"/>
       <c r="G346" s="16"/>
@@ -8745,10 +8744,10 @@
     </row>
     <row r="348" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A348" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B348" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="C348" s="12">
         <v>3</v>
@@ -8767,14 +8766,14 @@
       <c r="B349" s="16"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E349" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F349" s="12"/>
       <c r="G349" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H349" s="16"/>
       <c r="I349" s="12">
@@ -8790,14 +8789,14 @@
       <c r="B350" s="16"/>
       <c r="C350" s="12"/>
       <c r="D350" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E350" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F350" s="12"/>
       <c r="G350" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H350" s="16"/>
       <c r="I350" s="12">
@@ -8813,14 +8812,14 @@
       <c r="B351" s="16"/>
       <c r="C351" s="12"/>
       <c r="D351" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E351" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F351" s="12"/>
       <c r="G351" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H351" s="16"/>
       <c r="I351" s="12">
@@ -8836,14 +8835,14 @@
       <c r="B352" s="16"/>
       <c r="C352" s="12"/>
       <c r="D352" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E352" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F352" s="12"/>
       <c r="G352" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H352" s="16"/>
       <c r="I352" s="12">
@@ -8859,14 +8858,14 @@
       <c r="B353" s="16"/>
       <c r="C353" s="12"/>
       <c r="D353" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E353" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F353" s="12"/>
       <c r="G353" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H353" s="16"/>
       <c r="I353" s="12">
@@ -8882,14 +8881,14 @@
       <c r="B354" s="16"/>
       <c r="C354" s="12"/>
       <c r="D354" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E354" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F354" s="12"/>
       <c r="G354" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H354" s="16"/>
       <c r="I354" s="12">
@@ -8915,10 +8914,10 @@
     </row>
     <row r="356" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A356" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B356" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="B356" s="20" t="s">
-        <v>408</v>
       </c>
       <c r="C356" s="12">
         <v>3</v>
@@ -8937,10 +8936,10 @@
       <c r="B357" s="20"/>
       <c r="C357" s="12"/>
       <c r="D357" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E357" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F357" s="12"/>
       <c r="G357" s="20"/>
@@ -8958,10 +8957,10 @@
       <c r="B358" s="20"/>
       <c r="C358" s="12"/>
       <c r="D358" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E358" s="20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F358" s="12"/>
       <c r="G358" s="20"/>
@@ -8979,14 +8978,14 @@
       <c r="B359" s="20"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E359" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F359" s="12"/>
       <c r="G359" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H359" s="16"/>
       <c r="I359" s="12">
@@ -9002,14 +9001,14 @@
       <c r="B360" s="20"/>
       <c r="C360" s="12"/>
       <c r="D360" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E360" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F360" s="12"/>
       <c r="G360" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H360" s="16"/>
       <c r="I360" s="12">
@@ -9025,10 +9024,10 @@
       <c r="B361" s="20"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E361" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F361" s="12"/>
       <c r="G361" s="20"/>
@@ -9046,14 +9045,14 @@
       <c r="B362" s="20"/>
       <c r="C362" s="12"/>
       <c r="D362" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E362" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F362" s="12"/>
       <c r="G362" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H362" s="16"/>
       <c r="I362" s="12">
@@ -9079,10 +9078,10 @@
     </row>
     <row r="364" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A364" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C364" s="12">
         <v>3</v>
@@ -9101,10 +9100,10 @@
       <c r="B365" s="20"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E365" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F365" s="12"/>
       <c r="G365" s="20"/>
@@ -9122,10 +9121,10 @@
       <c r="B366" s="20"/>
       <c r="C366" s="12"/>
       <c r="D366" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E366" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F366" s="12"/>
       <c r="G366" s="20"/>
@@ -9143,14 +9142,14 @@
       <c r="B367" s="20"/>
       <c r="C367" s="12"/>
       <c r="D367" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E367" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F367" s="12"/>
       <c r="G367" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H367" s="16"/>
       <c r="I367" s="12">
@@ -9166,10 +9165,10 @@
       <c r="B368" s="20"/>
       <c r="C368" s="12"/>
       <c r="D368" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E368" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F368" s="12"/>
       <c r="G368" s="20"/>
@@ -9187,14 +9186,14 @@
       <c r="B369" s="20"/>
       <c r="C369" s="12"/>
       <c r="D369" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E369" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F369" s="12"/>
       <c r="G369" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H369" s="16"/>
       <c r="I369" s="12">
@@ -9282,7 +9281,7 @@
         <v>38</v>
       </c>
       <c r="L372" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M372" s="5" t="s">
         <v>40</v>
@@ -9294,10 +9293,10 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A373" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B373" s="46" t="s">
-        <v>433</v>
+        <v>424</v>
+      </c>
+      <c r="B373" s="26" t="s">
+        <v>432</v>
       </c>
       <c r="C373" s="12">
         <v>3</v>
@@ -9325,11 +9324,11 @@
       <c r="A374" s="12"/>
       <c r="B374" s="16"/>
       <c r="C374" s="22"/>
-      <c r="D374" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E374" s="46" t="s">
-        <v>434</v>
+      <c r="D374" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E374" s="26" t="s">
+        <v>433</v>
       </c>
       <c r="F374" s="22"/>
       <c r="G374" s="16"/>
@@ -9356,11 +9355,11 @@
       <c r="K375" s="17"/>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A376" s="48" t="s">
+      <c r="A376" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B376" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="B376" s="16" t="s">
-        <v>428</v>
       </c>
       <c r="C376" s="22">
         <v>3</v>
@@ -9377,18 +9376,18 @@
     <row r="377" spans="1:14" ht="28" x14ac:dyDescent="0.15">
       <c r="A377" s="12"/>
       <c r="B377" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C377" s="22"/>
-      <c r="D377" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E377" s="49" t="s">
-        <v>437</v>
+      <c r="D377" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E377" s="29" t="s">
+        <v>436</v>
       </c>
       <c r="F377" s="22"/>
-      <c r="G377" s="49" t="s">
-        <v>435</v>
+      <c r="G377" s="29" t="s">
+        <v>434</v>
       </c>
       <c r="H377" s="16"/>
       <c r="I377" s="22">
@@ -9414,10 +9413,10 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A379" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B379" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="B379" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="C379" s="22">
         <v>3</v>
@@ -9436,14 +9435,14 @@
       <c r="B380" s="16"/>
       <c r="C380" s="22"/>
       <c r="D380" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F380" s="22"/>
-      <c r="G380" s="49" t="s">
-        <v>436</v>
+      <c r="G380" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="H380" s="16"/>
       <c r="I380" s="22">
@@ -9504,7 +9503,7 @@
     </row>
     <row r="385" spans="12:14" ht="42" x14ac:dyDescent="0.15">
       <c r="L385" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M385" s="5" t="s">
         <v>40</v>
@@ -9516,23 +9515,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.87" bottom="0.59" header="0.2" footer="0.2"/>
